--- a/Assets/Excel/MapData.xlsx
+++ b/Assets/Excel/MapData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="10155"/>
+    <workbookView windowWidth="21120" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>unlockLevel</t>
@@ -43,7 +43,10 @@
     <t>unlockCost</t>
   </si>
   <si>
-    <t>monsterType</t>
+    <t>monsterTypeList</t>
+  </si>
+  <si>
+    <t>customerTypeList</t>
   </si>
   <si>
     <t>int</t>
@@ -52,10 +55,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>编号</t>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>地图编号</t>
   </si>
   <si>
     <t>地图名称</t>
@@ -70,16 +73,25 @@
     <t>地图中的怪物种类</t>
   </si>
   <si>
+    <t>地图中的顾客类型</t>
+  </si>
+  <si>
     <t>春晖谷</t>
   </si>
   <si>
     <t>1,2,4,5</t>
   </si>
   <si>
+    <t>1,3</t>
+  </si>
+  <si>
     <t>碧澜谷</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
   </si>
   <si>
     <t>金露谷</t>
@@ -1028,20 +1040,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="45.75" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,47 +1070,56 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1106,15 +1128,18 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1123,15 +1148,18 @@
         <v>15000</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1140,15 +1168,18 @@
         <v>150000</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1157,15 +1188,18 @@
         <v>300000</v>
       </c>
       <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -1174,7 +1208,10 @@
         <v>500000</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MapData.xlsx
+++ b/Assets/Excel/MapData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21120" windowHeight="6930"/>
+    <workbookView windowWidth="18285" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,15 @@
     <t>customerTypeList</t>
   </si>
   <si>
+    <t>taskGroupSize</t>
+  </si>
+  <si>
+    <t>taskNum</t>
+  </si>
+  <si>
+    <t>taskGroupNum</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -74,6 +83,15 @@
   </si>
   <si>
     <t>地图中的顾客类型</t>
+  </si>
+  <si>
+    <t>每张地图任务每组大小</t>
+  </si>
+  <si>
+    <t>任务数量</t>
+  </si>
+  <si>
+    <t>任务组数</t>
   </si>
   <si>
     <t>春晖谷</t>
@@ -725,9 +743,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1040,178 +1061,253 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="45.75" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>60</v>
+      </c>
+      <c r="I5" s="1">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>150000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1">
         <v>18</v>
       </c>
-      <c r="C5">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>15000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>150000</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>110</v>
+      </c>
+      <c r="I8" s="1">
         <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>300000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>500000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
